--- a/PlantTransTwo/qPCR setup/RNA dilutions_PlantTransII .xlsx
+++ b/PlantTransTwo/qPCR setup/RNA dilutions_PlantTransII .xlsx
@@ -1514,7 +1514,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="312">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1827,8 +1827,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1983,8 +1985,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="312">
+  <cellStyles count="314">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent1 2" xfId="5"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -2142,6 +2147,7 @@
     <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -2295,6 +2301,7 @@
     <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -27500,10 +27507,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q365"/>
+  <dimension ref="A1:Q363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27556,15 +27563,15 @@
         <v>10</v>
       </c>
       <c r="E2" s="66">
-        <f>((B2*D2)/20)</f>
+        <f t="shared" ref="E2:E18" si="0">((B2*D2)/20)</f>
         <v>69.935000000000002</v>
       </c>
       <c r="F2" s="67">
-        <f t="shared" ref="F2:F64" si="0">(E2-D2)</f>
+        <f t="shared" ref="F2:F64" si="1">(E2-D2)</f>
         <v>59.935000000000002</v>
       </c>
       <c r="G2" s="68">
-        <f t="shared" ref="G2:G64" si="1">(E2/D2)</f>
+        <f t="shared" ref="G2:G64" si="2">(E2/D2)</f>
         <v>6.9935</v>
       </c>
     </row>
@@ -27582,15 +27589,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="66">
-        <f>((B3*D3)/20)</f>
+        <f t="shared" si="0"/>
         <v>60.909999999999989</v>
       </c>
       <c r="F3" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.909999999999989</v>
       </c>
       <c r="G3" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0909999999999993</v>
       </c>
     </row>
@@ -27608,15 +27615,15 @@
         <v>10</v>
       </c>
       <c r="E4" s="66">
-        <f>((B4*D4)/20)</f>
+        <f t="shared" si="0"/>
         <v>43.95</v>
       </c>
       <c r="F4" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.950000000000003</v>
       </c>
       <c r="G4" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3950000000000005</v>
       </c>
     </row>
@@ -27634,15 +27641,15 @@
         <v>10</v>
       </c>
       <c r="E5" s="66">
-        <f>((B5*D5)/20)</f>
+        <f t="shared" si="0"/>
         <v>72.94</v>
       </c>
       <c r="F5" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.94</v>
       </c>
       <c r="G5" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2939999999999996</v>
       </c>
     </row>
@@ -27660,15 +27667,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="66">
-        <f>((B6*D6)/20)</f>
+        <f t="shared" si="0"/>
         <v>59.854999999999997</v>
       </c>
       <c r="F6" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.854999999999997</v>
       </c>
       <c r="G6" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9855</v>
       </c>
     </row>
@@ -27686,15 +27693,15 @@
         <v>20</v>
       </c>
       <c r="E7" s="66">
-        <f>((B7*D7)/20)</f>
+        <f t="shared" si="0"/>
         <v>51.929999999999993</v>
       </c>
       <c r="F7" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.929999999999993</v>
       </c>
       <c r="G7" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5964999999999998</v>
       </c>
     </row>
@@ -27712,15 +27719,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="66">
-        <f>((B8*D8)/20)</f>
+        <f t="shared" si="0"/>
         <v>40.33</v>
       </c>
       <c r="F8" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.33</v>
       </c>
       <c r="G8" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0329999999999995</v>
       </c>
     </row>
@@ -27738,15 +27745,15 @@
         <v>10</v>
       </c>
       <c r="E9" s="66">
-        <f>((B9*D9)/20)</f>
+        <f t="shared" si="0"/>
         <v>35.575000000000003</v>
       </c>
       <c r="F9" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.575000000000003</v>
       </c>
       <c r="G9" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5575000000000001</v>
       </c>
     </row>
@@ -27764,15 +27771,15 @@
         <v>10</v>
       </c>
       <c r="E10" s="66">
-        <f>((B10*D10)/20)</f>
+        <f t="shared" si="0"/>
         <v>42.895000000000003</v>
       </c>
       <c r="F10" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.895000000000003</v>
       </c>
       <c r="G10" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2895000000000003</v>
       </c>
     </row>
@@ -27790,15 +27797,15 @@
         <v>10</v>
       </c>
       <c r="E11" s="66">
-        <f>((B11*D11)/20)</f>
+        <f t="shared" si="0"/>
         <v>54.935000000000002</v>
       </c>
       <c r="F11" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.935000000000002</v>
       </c>
       <c r="G11" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4935</v>
       </c>
     </row>
@@ -27816,15 +27823,15 @@
         <v>10</v>
       </c>
       <c r="E12" s="66">
-        <f>((B12*D12)/20)</f>
+        <f t="shared" si="0"/>
         <v>60.489999999999995</v>
       </c>
       <c r="F12" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.489999999999995</v>
       </c>
       <c r="G12" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0489999999999995</v>
       </c>
     </row>
@@ -27842,15 +27849,15 @@
         <v>10</v>
       </c>
       <c r="E13" s="66">
-        <f>((B13*D13)/20)</f>
+        <f t="shared" si="0"/>
         <v>46.69</v>
       </c>
       <c r="F13" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.69</v>
       </c>
       <c r="G13" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6689999999999996</v>
       </c>
     </row>
@@ -27868,15 +27875,15 @@
         <v>10</v>
       </c>
       <c r="E14" s="66">
-        <f>((B14*D14)/20)</f>
+        <f t="shared" si="0"/>
         <v>50.795000000000002</v>
       </c>
       <c r="F14" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.795000000000002</v>
       </c>
       <c r="G14" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0795000000000003</v>
       </c>
     </row>
@@ -27894,15 +27901,15 @@
         <v>10</v>
       </c>
       <c r="E15" s="66">
-        <f>((B15*D15)/20)</f>
+        <f t="shared" si="0"/>
         <v>51.954999999999998</v>
       </c>
       <c r="F15" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.954999999999998</v>
       </c>
       <c r="G15" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1955</v>
       </c>
     </row>
@@ -27920,15 +27927,15 @@
         <v>10</v>
       </c>
       <c r="E16" s="66">
-        <f>((B16*D16)/20)</f>
+        <f t="shared" si="0"/>
         <v>42.125</v>
       </c>
       <c r="F16" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.125</v>
       </c>
       <c r="G16" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2125000000000004</v>
       </c>
     </row>
@@ -27946,15 +27953,15 @@
         <v>10</v>
       </c>
       <c r="E17" s="66">
-        <f>((B17*D17)/20)</f>
+        <f t="shared" si="0"/>
         <v>55.220000000000006</v>
       </c>
       <c r="F17" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.220000000000006</v>
       </c>
       <c r="G17" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5220000000000002</v>
       </c>
     </row>
@@ -27972,15 +27979,15 @@
         <v>10</v>
       </c>
       <c r="E18" s="66">
-        <f>((B18*D18)/20)</f>
+        <f t="shared" si="0"/>
         <v>42.094999999999999</v>
       </c>
       <c r="F18" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.094999999999999</v>
       </c>
       <c r="G18" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2095000000000002</v>
       </c>
     </row>
@@ -28009,15 +28016,15 @@
         <v>20</v>
       </c>
       <c r="E20" s="66">
-        <f>((B20*D20)/20)</f>
+        <f t="shared" ref="E20:E39" si="3">((B20*D20)/20)</f>
         <v>49.47</v>
       </c>
       <c r="F20" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.47</v>
       </c>
       <c r="G20" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4735</v>
       </c>
     </row>
@@ -28035,15 +28042,15 @@
         <v>15</v>
       </c>
       <c r="E21" s="66">
-        <f>((B21*D21)/20)</f>
+        <f t="shared" si="3"/>
         <v>59.159999999999989</v>
       </c>
       <c r="F21" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.159999999999989</v>
       </c>
       <c r="G21" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9439999999999995</v>
       </c>
     </row>
@@ -28061,15 +28068,15 @@
         <v>20</v>
       </c>
       <c r="E22" s="66">
-        <f>((B22*D22)/20)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="F22" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G22" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0499999999999998</v>
       </c>
     </row>
@@ -28087,15 +28094,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="66">
-        <f>((B23*D23)/20)</f>
+        <f t="shared" si="3"/>
         <v>39.67</v>
       </c>
       <c r="F23" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.67</v>
       </c>
       <c r="G23" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9670000000000001</v>
       </c>
     </row>
@@ -28113,15 +28120,15 @@
         <v>25</v>
       </c>
       <c r="E24" s="66">
-        <f>((B24*D24)/20)</f>
+        <f t="shared" si="3"/>
         <v>45.487499999999997</v>
       </c>
       <c r="F24" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.487499999999997</v>
       </c>
       <c r="G24" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8194999999999999</v>
       </c>
       <c r="H24" s="69"/>
@@ -28140,15 +28147,15 @@
         <v>10</v>
       </c>
       <c r="E25" s="74">
-        <f>((B25*D25)/20)</f>
+        <f t="shared" si="3"/>
         <v>-1.8850000000000002</v>
       </c>
       <c r="F25" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11.885</v>
       </c>
       <c r="G25" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.18850000000000003</v>
       </c>
       <c r="H25" s="77"/>
@@ -28167,15 +28174,15 @@
         <v>10</v>
       </c>
       <c r="E26" s="66">
-        <f>((B26*D26)/20)</f>
+        <f t="shared" si="3"/>
         <v>64.174999999999997</v>
       </c>
       <c r="F26" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.174999999999997</v>
       </c>
       <c r="G26" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4174999999999995</v>
       </c>
       <c r="H26" s="69"/>
@@ -28194,15 +28201,15 @@
         <v>15</v>
       </c>
       <c r="E27" s="66">
-        <f>((B27*D27)/20)</f>
+        <f t="shared" si="3"/>
         <v>49.987500000000004</v>
       </c>
       <c r="F27" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.987500000000004</v>
       </c>
       <c r="G27" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3325000000000005</v>
       </c>
       <c r="H27" s="69"/>
@@ -28221,15 +28228,15 @@
         <v>25</v>
       </c>
       <c r="E28" s="66">
-        <f>((B28*D28)/20)</f>
+        <f t="shared" si="3"/>
         <v>41.100000000000009</v>
       </c>
       <c r="F28" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.100000000000009</v>
       </c>
       <c r="G28" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6440000000000003</v>
       </c>
       <c r="H28" s="70"/>
@@ -28248,15 +28255,15 @@
         <v>30</v>
       </c>
       <c r="E29" s="66">
-        <f>((B29*D29)/20)</f>
+        <f t="shared" si="3"/>
         <v>44.234999999999999</v>
       </c>
       <c r="F29" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.234999999999999</v>
       </c>
       <c r="G29" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4744999999999999</v>
       </c>
       <c r="H29" s="70"/>
@@ -28275,15 +28282,15 @@
         <v>20</v>
       </c>
       <c r="E30" s="66">
-        <f>((B30*D30)/20)</f>
+        <f t="shared" si="3"/>
         <v>39.1</v>
       </c>
       <c r="F30" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.100000000000001</v>
       </c>
       <c r="G30" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9550000000000001</v>
       </c>
       <c r="H30" s="69"/>
@@ -28302,15 +28309,15 @@
         <v>20</v>
       </c>
       <c r="E31" s="66">
-        <f>((B31*D31)/20)</f>
+        <f t="shared" si="3"/>
         <v>40.130000000000003</v>
       </c>
       <c r="F31" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.130000000000003</v>
       </c>
       <c r="G31" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0065</v>
       </c>
       <c r="H31" s="69"/>
@@ -28329,15 +28336,15 @@
         <v>35</v>
       </c>
       <c r="E32" s="66">
-        <f>((B32*D32)/20)</f>
+        <f t="shared" si="3"/>
         <v>30.169999999999998</v>
       </c>
       <c r="F32" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.8300000000000018</v>
       </c>
       <c r="G32" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86199999999999999</v>
       </c>
       <c r="H32" s="69"/>
@@ -28356,15 +28363,15 @@
         <v>25</v>
       </c>
       <c r="E33" s="66">
-        <f>((B33*D33)/20)</f>
+        <f t="shared" si="3"/>
         <v>44.662499999999994</v>
       </c>
       <c r="F33" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.662499999999994</v>
       </c>
       <c r="G33" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7864999999999998</v>
       </c>
       <c r="H33" s="69"/>
@@ -28383,15 +28390,15 @@
         <v>10</v>
       </c>
       <c r="E34" s="66">
-        <f>((B34*D34)/20)</f>
+        <f t="shared" si="3"/>
         <v>40.98</v>
       </c>
       <c r="F34" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.979999999999997</v>
       </c>
       <c r="G34" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0979999999999999</v>
       </c>
     </row>
@@ -28409,15 +28416,15 @@
         <v>20</v>
       </c>
       <c r="E35" s="66">
-        <f>((B35*D35)/20)</f>
+        <f t="shared" si="3"/>
         <v>42.53</v>
       </c>
       <c r="F35" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.53</v>
       </c>
       <c r="G35" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1265000000000001</v>
       </c>
     </row>
@@ -28435,15 +28442,15 @@
         <v>10</v>
       </c>
       <c r="E36" s="66">
-        <f>((B36*D36)/20)</f>
+        <f t="shared" si="3"/>
         <v>45.37</v>
       </c>
       <c r="F36" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.369999999999997</v>
       </c>
       <c r="G36" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5369999999999999</v>
       </c>
     </row>
@@ -28461,15 +28468,15 @@
         <v>10</v>
       </c>
       <c r="E37" s="74">
-        <f>((B37*D37)/20)</f>
+        <f t="shared" si="3"/>
         <v>-9.33</v>
       </c>
       <c r="F37" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-19.329999999999998</v>
       </c>
       <c r="G37" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.93300000000000005</v>
       </c>
     </row>
@@ -28487,15 +28494,15 @@
         <v>10</v>
       </c>
       <c r="E38" s="66">
-        <f>((B38*D38)/20)</f>
+        <f t="shared" si="3"/>
         <v>43.67</v>
       </c>
       <c r="F38" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.67</v>
       </c>
       <c r="G38" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.367</v>
       </c>
     </row>
@@ -28513,15 +28520,15 @@
         <v>15</v>
       </c>
       <c r="E39" s="66">
-        <f>((B39*D39)/20)</f>
+        <f t="shared" si="3"/>
         <v>49.822500000000005</v>
       </c>
       <c r="F39" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.822500000000005</v>
       </c>
       <c r="G39" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3215000000000003</v>
       </c>
       <c r="I39"/>
@@ -28559,15 +28566,15 @@
         <v>20</v>
       </c>
       <c r="E41" s="66">
-        <f>((B41*D41)/20)</f>
+        <f t="shared" ref="E41:E52" si="4">((B41*D41)/20)</f>
         <v>43.36</v>
       </c>
       <c r="F41" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.36</v>
       </c>
       <c r="G41" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1680000000000001</v>
       </c>
     </row>
@@ -28585,15 +28592,15 @@
         <v>10</v>
       </c>
       <c r="E42" s="66">
-        <f>((B42*D42)/20)</f>
+        <f t="shared" si="4"/>
         <v>38.85</v>
       </c>
       <c r="F42" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.85</v>
       </c>
       <c r="G42" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8850000000000002</v>
       </c>
     </row>
@@ -28611,15 +28618,15 @@
         <v>10</v>
       </c>
       <c r="E43" s="74">
-        <f>((B43*D43)/20)</f>
+        <f t="shared" si="4"/>
         <v>9.11</v>
       </c>
       <c r="F43" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.89000000000000057</v>
       </c>
       <c r="G43" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91099999999999992</v>
       </c>
     </row>
@@ -28637,15 +28644,15 @@
         <v>35</v>
       </c>
       <c r="E44" s="66">
-        <f>((B44*D44)/20)</f>
+        <f t="shared" si="4"/>
         <v>36.837499999999999</v>
       </c>
       <c r="F44" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8374999999999986</v>
       </c>
       <c r="G44" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0525</v>
       </c>
     </row>
@@ -28663,15 +28670,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="66">
-        <f>((B45*D45)/20)</f>
+        <f t="shared" si="4"/>
         <v>59.52</v>
       </c>
       <c r="F45" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.52</v>
       </c>
       <c r="G45" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.952</v>
       </c>
     </row>
@@ -28689,15 +28696,15 @@
         <v>35</v>
       </c>
       <c r="E46" s="66">
-        <f>((B46*D46)/20)</f>
+        <f t="shared" si="4"/>
         <v>38.884999999999998</v>
       </c>
       <c r="F46" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.884999999999998</v>
       </c>
       <c r="G46" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.111</v>
       </c>
     </row>
@@ -28715,15 +28722,15 @@
         <v>35</v>
       </c>
       <c r="E47" s="66">
-        <f>((B47*D47)/20)</f>
+        <f t="shared" si="4"/>
         <v>51.887500000000003</v>
       </c>
       <c r="F47" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.887500000000003</v>
       </c>
       <c r="G47" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4825000000000002</v>
       </c>
     </row>
@@ -28741,15 +28748,15 @@
         <v>10</v>
       </c>
       <c r="E48" s="74">
-        <f>((B48*D48)/20)</f>
+        <f t="shared" si="4"/>
         <v>8.61</v>
       </c>
       <c r="F48" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3900000000000006</v>
       </c>
       <c r="G48" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86099999999999999</v>
       </c>
     </row>
@@ -28767,15 +28774,15 @@
         <v>15</v>
       </c>
       <c r="E49" s="66">
-        <f>((B49*D49)/20)</f>
+        <f t="shared" si="4"/>
         <v>54.1875</v>
       </c>
       <c r="F49" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.1875</v>
       </c>
       <c r="G49" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6124999999999998</v>
       </c>
     </row>
@@ -28793,15 +28800,15 @@
         <v>35</v>
       </c>
       <c r="E50" s="66">
-        <f>((B50*D50)/20)</f>
+        <f t="shared" si="4"/>
         <v>44.73</v>
       </c>
       <c r="F50" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7299999999999969</v>
       </c>
       <c r="G50" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2779999999999998</v>
       </c>
     </row>
@@ -28819,15 +28826,15 @@
         <v>30</v>
       </c>
       <c r="E51" s="66">
-        <f>((B51*D51)/20)</f>
+        <f t="shared" si="4"/>
         <v>58.83</v>
       </c>
       <c r="F51" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.83</v>
       </c>
       <c r="G51" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9609999999999999</v>
       </c>
     </row>
@@ -28845,15 +28852,15 @@
         <v>35</v>
       </c>
       <c r="E52" s="66">
-        <f>((B52*D52)/20)</f>
+        <f t="shared" si="4"/>
         <v>42.734999999999999</v>
       </c>
       <c r="F52" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7349999999999994</v>
       </c>
       <c r="G52" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2210000000000001</v>
       </c>
     </row>
@@ -28882,15 +28889,15 @@
         <v>10</v>
       </c>
       <c r="E54" s="74">
-        <f>((B54*D54)/20)</f>
+        <f t="shared" ref="E54:E89" si="5">((B54*D54)/20)</f>
         <v>7.5750000000000002</v>
       </c>
       <c r="F54" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.4249999999999998</v>
       </c>
       <c r="G54" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75750000000000006</v>
       </c>
     </row>
@@ -28908,15 +28915,15 @@
         <v>10</v>
       </c>
       <c r="E55" s="74">
-        <f>((B55*D55)/20)</f>
+        <f t="shared" si="5"/>
         <v>5.9450000000000003</v>
       </c>
       <c r="F55" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.0549999999999997</v>
       </c>
       <c r="G55" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59450000000000003</v>
       </c>
     </row>
@@ -28934,15 +28941,15 @@
         <v>30</v>
       </c>
       <c r="E56" s="66">
-        <f>((B56*D56)/20)</f>
+        <f t="shared" si="5"/>
         <v>43.68</v>
       </c>
       <c r="F56" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.68</v>
       </c>
       <c r="G56" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.456</v>
       </c>
     </row>
@@ -28960,15 +28967,15 @@
         <v>20</v>
       </c>
       <c r="E57" s="66">
-        <f>((B57*D57)/20)</f>
+        <f t="shared" si="5"/>
         <v>41.17</v>
       </c>
       <c r="F57" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.17</v>
       </c>
       <c r="G57" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0585</v>
       </c>
     </row>
@@ -28986,15 +28993,15 @@
         <v>15</v>
       </c>
       <c r="E58" s="66">
-        <f>((B58*D58)/20)</f>
+        <f t="shared" si="5"/>
         <v>51.022500000000001</v>
       </c>
       <c r="F58" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.022500000000001</v>
       </c>
       <c r="G58" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4015</v>
       </c>
     </row>
@@ -29012,15 +29019,15 @@
         <v>10</v>
       </c>
       <c r="E59" s="74">
-        <f>((B59*D59)/20)</f>
+        <f t="shared" si="5"/>
         <v>5.3150000000000004</v>
       </c>
       <c r="F59" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.6849999999999996</v>
       </c>
       <c r="G59" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53150000000000008</v>
       </c>
     </row>
@@ -29038,15 +29045,15 @@
         <v>10</v>
       </c>
       <c r="E60" s="74">
-        <f>((B60*D60)/20)</f>
+        <f t="shared" si="5"/>
         <v>8.43</v>
       </c>
       <c r="F60" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5700000000000003</v>
       </c>
       <c r="G60" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84299999999999997</v>
       </c>
     </row>
@@ -29064,15 +29071,15 @@
         <v>10</v>
       </c>
       <c r="E61" s="74">
-        <f>((B61*D61)/20)</f>
+        <f t="shared" si="5"/>
         <v>5.3449999999999998</v>
       </c>
       <c r="F61" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.6550000000000002</v>
       </c>
       <c r="G61" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53449999999999998</v>
       </c>
     </row>
@@ -29090,15 +29097,15 @@
         <v>10</v>
       </c>
       <c r="E62" s="74">
-        <f>((B62*D62)/20)</f>
+        <f t="shared" si="5"/>
         <v>4.21</v>
       </c>
       <c r="F62" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.79</v>
       </c>
       <c r="G62" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -29116,15 +29123,15 @@
         <v>35</v>
       </c>
       <c r="E63" s="66">
-        <f>((B63*D63)/20)</f>
+        <f t="shared" si="5"/>
         <v>44.082500000000003</v>
       </c>
       <c r="F63" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0825000000000031</v>
       </c>
       <c r="G63" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2595000000000001</v>
       </c>
     </row>
@@ -29142,15 +29149,15 @@
         <v>20</v>
       </c>
       <c r="E64" s="66">
-        <f>((B64*D64)/20)</f>
+        <f t="shared" si="5"/>
         <v>50.82</v>
       </c>
       <c r="F64" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.82</v>
       </c>
       <c r="G64" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5409999999999999</v>
       </c>
     </row>
@@ -29168,15 +29175,15 @@
         <v>10</v>
       </c>
       <c r="E65" s="74">
-        <f>((B65*D65)/20)</f>
+        <f t="shared" si="5"/>
         <v>5.71</v>
       </c>
       <c r="F65" s="75">
-        <f t="shared" ref="F65:F106" si="2">(E65-D65)</f>
+        <f t="shared" ref="F65:F106" si="6">(E65-D65)</f>
         <v>-4.29</v>
       </c>
       <c r="G65" s="76">
-        <f t="shared" ref="G65:G106" si="3">(E65/D65)</f>
+        <f t="shared" ref="G65:G106" si="7">(E65/D65)</f>
         <v>0.57099999999999995</v>
       </c>
     </row>
@@ -29194,15 +29201,15 @@
         <v>30</v>
       </c>
       <c r="E66" s="66">
-        <f>((B66*D66)/20)</f>
+        <f t="shared" si="5"/>
         <v>41.61</v>
       </c>
       <c r="F66" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.61</v>
       </c>
       <c r="G66" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.387</v>
       </c>
     </row>
@@ -29220,15 +29227,15 @@
         <v>20</v>
       </c>
       <c r="E67" s="66">
-        <f>((B67*D67)/20)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="F67" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="G67" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.6</v>
       </c>
     </row>
@@ -29246,15 +29253,15 @@
         <v>35</v>
       </c>
       <c r="E68" s="66">
-        <f>((B68*D68)/20)</f>
+        <f t="shared" si="5"/>
         <v>46.935000000000002</v>
       </c>
       <c r="F68" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.935000000000002</v>
       </c>
       <c r="G68" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.341</v>
       </c>
     </row>
@@ -29272,15 +29279,15 @@
         <v>35</v>
       </c>
       <c r="E69" s="66">
-        <f>((B69*D69)/20)</f>
+        <f t="shared" si="5"/>
         <v>37.397500000000001</v>
       </c>
       <c r="F69" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.3975000000000009</v>
       </c>
       <c r="G69" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0685</v>
       </c>
     </row>
@@ -29298,15 +29305,15 @@
         <v>35</v>
       </c>
       <c r="E70" s="66">
-        <f>((B70*D70)/20)</f>
+        <f t="shared" si="5"/>
         <v>41.685000000000002</v>
       </c>
       <c r="F70" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.6850000000000023</v>
       </c>
       <c r="G70" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1910000000000001</v>
       </c>
     </row>
@@ -29324,15 +29331,15 @@
         <v>10</v>
       </c>
       <c r="E71" s="66">
-        <f>((B71*D71)/20)</f>
+        <f t="shared" si="5"/>
         <v>40.909999999999997</v>
       </c>
       <c r="F71" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30.909999999999997</v>
       </c>
       <c r="G71" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.0909999999999993</v>
       </c>
     </row>
@@ -29350,15 +29357,15 @@
         <v>15</v>
       </c>
       <c r="E72" s="66">
-        <f>((B72*D72)/20)</f>
+        <f t="shared" si="5"/>
         <v>43.589999999999996</v>
       </c>
       <c r="F72" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28.589999999999996</v>
       </c>
       <c r="G72" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9059999999999997</v>
       </c>
     </row>
@@ -29376,15 +29383,15 @@
         <v>10</v>
       </c>
       <c r="E73" s="66">
-        <f>((B73*D73)/20)</f>
+        <f t="shared" si="5"/>
         <v>52.4</v>
       </c>
       <c r="F73" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42.4</v>
       </c>
       <c r="G73" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.24</v>
       </c>
     </row>
@@ -29402,15 +29409,15 @@
         <v>15</v>
       </c>
       <c r="E74" s="66">
-        <f>((B74*D74)/20)</f>
+        <f t="shared" si="5"/>
         <v>46.725000000000001</v>
       </c>
       <c r="F74" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31.725000000000001</v>
       </c>
       <c r="G74" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1150000000000002</v>
       </c>
     </row>
@@ -29428,15 +29435,15 @@
         <v>20</v>
       </c>
       <c r="E75" s="66">
-        <f>((B75*D75)/20)</f>
+        <f t="shared" si="5"/>
         <v>54.06</v>
       </c>
       <c r="F75" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34.06</v>
       </c>
       <c r="G75" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7030000000000003</v>
       </c>
     </row>
@@ -29454,15 +29461,15 @@
         <v>10</v>
       </c>
       <c r="E76" s="74">
-        <f>((B76*D76)/20)</f>
+        <f t="shared" si="5"/>
         <v>0.51</v>
       </c>
       <c r="F76" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.49</v>
       </c>
       <c r="G76" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
@@ -29480,15 +29487,15 @@
         <v>15</v>
       </c>
       <c r="E77" s="66">
-        <f>((B77*D77)/20)</f>
+        <f t="shared" si="5"/>
         <v>56.302499999999995</v>
       </c>
       <c r="F77" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41.302499999999995</v>
       </c>
       <c r="G77" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.7534999999999998</v>
       </c>
     </row>
@@ -29506,15 +29513,15 @@
         <v>10</v>
       </c>
       <c r="E78" s="74">
-        <f>((B78*D78)/20)</f>
+        <f t="shared" si="5"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F78" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.5250000000000004</v>
       </c>
       <c r="G78" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
@@ -29532,15 +29539,15 @@
         <v>5</v>
       </c>
       <c r="E79" s="66">
-        <f>((B79*D79)/20)</f>
+        <f t="shared" si="5"/>
         <v>43.4925</v>
       </c>
       <c r="F79" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>38.4925</v>
       </c>
       <c r="G79" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.6984999999999992</v>
       </c>
     </row>
@@ -29558,15 +29565,15 @@
         <v>10</v>
       </c>
       <c r="E80" s="74">
-        <f>((B80*D80)/20)</f>
+        <f t="shared" si="5"/>
         <v>0.46000000000000008</v>
       </c>
       <c r="F80" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.5399999999999991</v>
       </c>
       <c r="G80" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.6000000000000006E-2</v>
       </c>
     </row>
@@ -29584,15 +29591,15 @@
         <v>10</v>
       </c>
       <c r="E81" s="66">
-        <f>((B81*D81)/20)</f>
+        <f t="shared" si="5"/>
         <v>54.00500000000001</v>
       </c>
       <c r="F81" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>44.00500000000001</v>
       </c>
       <c r="G81" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.400500000000001</v>
       </c>
     </row>
@@ -29610,15 +29617,15 @@
         <v>10</v>
       </c>
       <c r="E82" s="74">
-        <f>((B82*D82)/20)</f>
+        <f t="shared" si="5"/>
         <v>0.68</v>
       </c>
       <c r="F82" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.32</v>
       </c>
       <c r="G82" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -29636,15 +29643,15 @@
         <v>10</v>
       </c>
       <c r="E83" s="66">
-        <f>((B83*D83)/20)</f>
+        <f t="shared" si="5"/>
         <v>42.88</v>
       </c>
       <c r="F83" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32.880000000000003</v>
       </c>
       <c r="G83" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.2880000000000003</v>
       </c>
     </row>
@@ -29662,15 +29669,15 @@
         <v>10</v>
       </c>
       <c r="E84" s="74">
-        <f>((B84*D84)/20)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F84" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="G84" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -29688,15 +29695,15 @@
         <v>15</v>
       </c>
       <c r="E85" s="66">
-        <f>((B85*D85)/20)</f>
+        <f t="shared" si="5"/>
         <v>44.737499999999997</v>
       </c>
       <c r="F85" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29.737499999999997</v>
       </c>
       <c r="G85" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9824999999999999</v>
       </c>
     </row>
@@ -29714,15 +29721,15 @@
         <v>20</v>
       </c>
       <c r="E86" s="66">
-        <f>((B86*D86)/20)</f>
+        <f t="shared" si="5"/>
         <v>49.39</v>
       </c>
       <c r="F86" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29.39</v>
       </c>
       <c r="G86" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.4695</v>
       </c>
     </row>
@@ -29740,15 +29747,15 @@
         <v>10</v>
       </c>
       <c r="E87" s="66">
-        <f>((B87*D87)/20)</f>
+        <f t="shared" si="5"/>
         <v>47.255000000000003</v>
       </c>
       <c r="F87" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>37.255000000000003</v>
       </c>
       <c r="G87" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.7255000000000003</v>
       </c>
     </row>
@@ -29766,15 +29773,15 @@
         <v>10</v>
       </c>
       <c r="E88" s="66">
-        <f>((B88*D88)/20)</f>
+        <f t="shared" si="5"/>
         <v>41.7</v>
       </c>
       <c r="F88" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31.700000000000003</v>
       </c>
       <c r="G88" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.17</v>
       </c>
     </row>
@@ -29792,15 +29799,15 @@
         <v>15</v>
       </c>
       <c r="E89" s="66">
-        <f>((B89*D89)/20)</f>
+        <f t="shared" si="5"/>
         <v>49.92</v>
       </c>
       <c r="F89" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34.92</v>
       </c>
       <c r="G89" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3280000000000003</v>
       </c>
     </row>
@@ -29840,15 +29847,15 @@
         <v>20</v>
       </c>
       <c r="E92" s="66">
-        <f>((B92*D92)/20)</f>
+        <f t="shared" ref="E92:E106" si="8">((B92*D92)/20)</f>
         <v>52.44</v>
       </c>
       <c r="F92" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32.44</v>
       </c>
       <c r="G92" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.6219999999999999</v>
       </c>
     </row>
@@ -29866,15 +29873,15 @@
         <v>10</v>
       </c>
       <c r="E93" s="74">
-        <f>((B93*D93)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.61499999999999999</v>
       </c>
       <c r="F93" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.3849999999999998</v>
       </c>
       <c r="G93" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.1499999999999999E-2</v>
       </c>
     </row>
@@ -29892,15 +29899,15 @@
         <v>10</v>
       </c>
       <c r="E94" s="74">
-        <f>((B94*D94)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
       <c r="F94" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.65</v>
       </c>
       <c r="G94" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4999999999999996E-2</v>
       </c>
     </row>
@@ -29918,15 +29925,15 @@
         <v>10</v>
       </c>
       <c r="E95" s="74">
-        <f>((B95*D95)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="F95" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.3650000000000002</v>
       </c>
       <c r="G95" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -29944,15 +29951,15 @@
         <v>10</v>
       </c>
       <c r="E96" s="74">
-        <f>((B96*D96)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
       <c r="F96" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.34</v>
       </c>
       <c r="G96" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
@@ -29970,15 +29977,15 @@
         <v>10</v>
       </c>
       <c r="E97" s="74">
-        <f>((B97*D97)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="F97" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.8000000000000007</v>
       </c>
       <c r="G97" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
     </row>
@@ -29996,15 +30003,15 @@
         <v>30</v>
       </c>
       <c r="E98" s="66">
-        <f>((B98*D98)/20)</f>
+        <f t="shared" si="8"/>
         <v>43.95</v>
       </c>
       <c r="F98" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.950000000000003</v>
       </c>
       <c r="G98" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4650000000000001</v>
       </c>
     </row>
@@ -30022,15 +30029,15 @@
         <v>20</v>
       </c>
       <c r="E99" s="66">
-        <f>((B99*D99)/20)</f>
+        <f t="shared" si="8"/>
         <v>56.14</v>
       </c>
       <c r="F99" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>36.14</v>
       </c>
       <c r="G99" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8069999999999999</v>
       </c>
     </row>
@@ -30048,15 +30055,15 @@
         <v>10</v>
       </c>
       <c r="E100" s="74">
-        <f>((B100*D100)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.18</v>
       </c>
       <c r="F100" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.82</v>
       </c>
       <c r="G100" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -30074,15 +30081,15 @@
         <v>20</v>
       </c>
       <c r="E101" s="66">
-        <f>((B101*D101)/20)</f>
+        <f t="shared" si="8"/>
         <v>53.71</v>
       </c>
       <c r="F101" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33.71</v>
       </c>
       <c r="G101" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.6855000000000002</v>
       </c>
     </row>
@@ -30100,15 +30107,15 @@
         <v>30</v>
       </c>
       <c r="E102" s="66">
-        <f>((B102*D102)/20)</f>
+        <f t="shared" si="8"/>
         <v>52.35</v>
       </c>
       <c r="F102" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22.35</v>
       </c>
       <c r="G102" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7450000000000001</v>
       </c>
     </row>
@@ -30126,15 +30133,15 @@
         <v>10</v>
       </c>
       <c r="E103" s="74">
-        <f>((B103*D103)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.45499999999999996</v>
       </c>
       <c r="F103" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.5449999999999999</v>
       </c>
       <c r="G103" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
@@ -30152,15 +30159,15 @@
         <v>20</v>
       </c>
       <c r="E104" s="66">
-        <f>((B104*D104)/20)</f>
+        <f t="shared" si="8"/>
         <v>45.02</v>
       </c>
       <c r="F104" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25.020000000000003</v>
       </c>
       <c r="G104" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.2510000000000003</v>
       </c>
     </row>
@@ -30178,15 +30185,15 @@
         <v>20</v>
       </c>
       <c r="E105" s="66">
-        <f>((B105*D105)/20)</f>
+        <f t="shared" si="8"/>
         <v>45.31</v>
       </c>
       <c r="F105" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25.310000000000002</v>
       </c>
       <c r="G105" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.2655000000000003</v>
       </c>
     </row>
@@ -30204,449 +30211,1265 @@
         <v>10</v>
       </c>
       <c r="E106" s="74">
-        <f>((B106*D106)/20)</f>
+        <f t="shared" si="8"/>
         <v>0.51500000000000001</v>
       </c>
       <c r="F106" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.4849999999999994</v>
       </c>
       <c r="G106" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.1500000000000004E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="68"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="64"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="64"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="64"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="64"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="64"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="64"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="64"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="64"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="64"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="64"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="64"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="64"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="64"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="64"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="64"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="64"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="64"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="64"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="64"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="64"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="64"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="64"/>
-      <c r="B128" s="64"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="64"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="64"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="64"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="64"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="64"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="64"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="64"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="64"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="64"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="64"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="64"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="64"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="64"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="64"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="64"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="64"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="64"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="64"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="64"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="64"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="64"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="64"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="64"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="64"/>
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="64"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="64"/>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="64"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="64"/>
-      <c r="B148" s="64"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="64"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="64"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="64"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="64"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="64"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="64"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="64"/>
-      <c r="B153" s="64"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="64"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="64"/>
-      <c r="B154" s="64"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="64"/>
+      <c r="A107">
+        <v>53</v>
+      </c>
+      <c r="B107">
+        <v>58.97</v>
+      </c>
+      <c r="C107" s="78">
+        <v>40</v>
+      </c>
+      <c r="D107" s="79">
+        <v>15</v>
+      </c>
+      <c r="E107" s="66">
+        <f t="shared" ref="E107:E154" si="9">((B107*D107)/20)</f>
+        <v>44.227499999999999</v>
+      </c>
+      <c r="F107" s="80">
+        <f t="shared" ref="F107:F154" si="10">(E107-D107)</f>
+        <v>29.227499999999999</v>
+      </c>
+      <c r="G107" s="68">
+        <f t="shared" ref="G107:G154" si="11">(E107/D107)</f>
+        <v>2.9485000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>56.6</v>
+      </c>
+      <c r="C108" s="78">
+        <v>40</v>
+      </c>
+      <c r="D108" s="79">
+        <v>15</v>
+      </c>
+      <c r="E108" s="66">
+        <f t="shared" si="9"/>
+        <v>42.45</v>
+      </c>
+      <c r="F108" s="80">
+        <f t="shared" si="10"/>
+        <v>27.450000000000003</v>
+      </c>
+      <c r="G108" s="68">
+        <f t="shared" si="11"/>
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>29</v>
+      </c>
+      <c r="B109">
+        <v>40.11</v>
+      </c>
+      <c r="C109" s="78">
+        <v>40</v>
+      </c>
+      <c r="D109" s="79">
+        <v>20</v>
+      </c>
+      <c r="E109" s="66">
+        <f t="shared" si="9"/>
+        <v>40.11</v>
+      </c>
+      <c r="F109" s="80">
+        <f t="shared" si="10"/>
+        <v>20.11</v>
+      </c>
+      <c r="G109" s="68">
+        <f t="shared" si="11"/>
+        <v>2.0055000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>53.16</v>
+      </c>
+      <c r="C110" s="78">
+        <v>40</v>
+      </c>
+      <c r="D110" s="79">
+        <v>20</v>
+      </c>
+      <c r="E110" s="66">
+        <f t="shared" si="9"/>
+        <v>53.159999999999989</v>
+      </c>
+      <c r="F110" s="80">
+        <f t="shared" si="10"/>
+        <v>33.159999999999989</v>
+      </c>
+      <c r="G110" s="68">
+        <f t="shared" si="11"/>
+        <v>2.6579999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>56</v>
+      </c>
+      <c r="B111">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="C111" s="78">
+        <v>40</v>
+      </c>
+      <c r="D111" s="79">
+        <v>15</v>
+      </c>
+      <c r="E111" s="66">
+        <f t="shared" si="9"/>
+        <v>57.614999999999995</v>
+      </c>
+      <c r="F111" s="80">
+        <f t="shared" si="10"/>
+        <v>42.614999999999995</v>
+      </c>
+      <c r="G111" s="68">
+        <f t="shared" si="11"/>
+        <v>3.8409999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>21</v>
+      </c>
+      <c r="B112">
+        <v>46.05</v>
+      </c>
+      <c r="C112" s="78">
+        <v>40</v>
+      </c>
+      <c r="D112" s="79">
+        <v>20</v>
+      </c>
+      <c r="E112" s="66">
+        <f t="shared" si="9"/>
+        <v>46.05</v>
+      </c>
+      <c r="F112" s="80">
+        <f t="shared" si="10"/>
+        <v>26.049999999999997</v>
+      </c>
+      <c r="G112" s="68">
+        <f t="shared" si="11"/>
+        <v>2.3024999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>50</v>
+      </c>
+      <c r="B113">
+        <v>62.19</v>
+      </c>
+      <c r="C113" s="78">
+        <v>40</v>
+      </c>
+      <c r="D113" s="79">
+        <v>15</v>
+      </c>
+      <c r="E113" s="66">
+        <f t="shared" si="9"/>
+        <v>46.642499999999998</v>
+      </c>
+      <c r="F113" s="80">
+        <f t="shared" si="10"/>
+        <v>31.642499999999998</v>
+      </c>
+      <c r="G113" s="68">
+        <f t="shared" si="11"/>
+        <v>3.1094999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>121.07</v>
+      </c>
+      <c r="C114" s="78">
+        <v>40</v>
+      </c>
+      <c r="D114" s="79">
+        <v>10</v>
+      </c>
+      <c r="E114" s="66">
+        <f t="shared" si="9"/>
+        <v>60.534999999999989</v>
+      </c>
+      <c r="F114" s="80">
+        <f t="shared" si="10"/>
+        <v>50.534999999999989</v>
+      </c>
+      <c r="G114" s="68">
+        <f t="shared" si="11"/>
+        <v>6.0534999999999988</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115">
+        <v>40</v>
+      </c>
+      <c r="C115" s="78">
+        <v>40</v>
+      </c>
+      <c r="D115" s="79">
+        <v>20</v>
+      </c>
+      <c r="E115" s="66">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F115" s="80">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="G115" s="68">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>53.83</v>
+      </c>
+      <c r="C116" s="78">
+        <v>40</v>
+      </c>
+      <c r="D116" s="79">
+        <v>15</v>
+      </c>
+      <c r="E116" s="66">
+        <f t="shared" si="9"/>
+        <v>40.372499999999995</v>
+      </c>
+      <c r="F116" s="80">
+        <f t="shared" si="10"/>
+        <v>25.372499999999995</v>
+      </c>
+      <c r="G116" s="68">
+        <f t="shared" si="11"/>
+        <v>2.6914999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>101</v>
+      </c>
+      <c r="B117">
+        <v>107.92</v>
+      </c>
+      <c r="C117" s="78">
+        <v>40</v>
+      </c>
+      <c r="D117" s="79">
+        <v>10</v>
+      </c>
+      <c r="E117" s="66">
+        <f t="shared" si="9"/>
+        <v>53.96</v>
+      </c>
+      <c r="F117" s="80">
+        <f t="shared" si="10"/>
+        <v>43.96</v>
+      </c>
+      <c r="G117" s="68">
+        <f t="shared" si="11"/>
+        <v>5.3959999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>66</v>
+      </c>
+      <c r="B118">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C118" s="78">
+        <v>40</v>
+      </c>
+      <c r="D118" s="79">
+        <v>15</v>
+      </c>
+      <c r="E118" s="66">
+        <f t="shared" si="9"/>
+        <v>55.95</v>
+      </c>
+      <c r="F118" s="80">
+        <f t="shared" si="10"/>
+        <v>40.950000000000003</v>
+      </c>
+      <c r="G118" s="68">
+        <f t="shared" si="11"/>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>70</v>
+      </c>
+      <c r="B119">
+        <v>38.85</v>
+      </c>
+      <c r="C119" s="78">
+        <v>40</v>
+      </c>
+      <c r="D119" s="79">
+        <v>20</v>
+      </c>
+      <c r="E119" s="66">
+        <f t="shared" si="9"/>
+        <v>38.85</v>
+      </c>
+      <c r="F119" s="80">
+        <f t="shared" si="10"/>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="G119" s="68">
+        <f t="shared" si="11"/>
+        <v>1.9425000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>58.63</v>
+      </c>
+      <c r="C120" s="78">
+        <v>40</v>
+      </c>
+      <c r="D120" s="79">
+        <v>15</v>
+      </c>
+      <c r="E120" s="66">
+        <f t="shared" si="9"/>
+        <v>43.972500000000004</v>
+      </c>
+      <c r="F120" s="80">
+        <f t="shared" si="10"/>
+        <v>28.972500000000004</v>
+      </c>
+      <c r="G120" s="68">
+        <f t="shared" si="11"/>
+        <v>2.9315000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>13</v>
+      </c>
+      <c r="B121">
+        <v>101.34</v>
+      </c>
+      <c r="C121" s="78">
+        <v>40</v>
+      </c>
+      <c r="D121" s="79">
+        <v>10</v>
+      </c>
+      <c r="E121" s="66">
+        <f t="shared" si="9"/>
+        <v>50.67</v>
+      </c>
+      <c r="F121" s="80">
+        <f t="shared" si="10"/>
+        <v>40.67</v>
+      </c>
+      <c r="G121" s="68">
+        <f t="shared" si="11"/>
+        <v>5.0670000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>113</v>
+      </c>
+      <c r="B122">
+        <v>106.63</v>
+      </c>
+      <c r="C122" s="78">
+        <v>40</v>
+      </c>
+      <c r="D122" s="79">
+        <v>10</v>
+      </c>
+      <c r="E122" s="66">
+        <f t="shared" si="9"/>
+        <v>53.314999999999998</v>
+      </c>
+      <c r="F122" s="80">
+        <f t="shared" si="10"/>
+        <v>43.314999999999998</v>
+      </c>
+      <c r="G122" s="68">
+        <f t="shared" si="11"/>
+        <v>5.3315000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>12</v>
+      </c>
+      <c r="B123">
+        <v>63.64</v>
+      </c>
+      <c r="C123" s="78">
+        <v>40</v>
+      </c>
+      <c r="D123" s="79">
+        <v>15</v>
+      </c>
+      <c r="E123" s="66">
+        <f t="shared" si="9"/>
+        <v>47.730000000000004</v>
+      </c>
+      <c r="F123" s="80">
+        <f t="shared" si="10"/>
+        <v>32.730000000000004</v>
+      </c>
+      <c r="G123" s="68">
+        <f t="shared" si="11"/>
+        <v>3.1820000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>113.46</v>
+      </c>
+      <c r="C124" s="78">
+        <v>40</v>
+      </c>
+      <c r="D124" s="79">
+        <v>10</v>
+      </c>
+      <c r="E124" s="66">
+        <f t="shared" si="9"/>
+        <v>56.73</v>
+      </c>
+      <c r="F124" s="80">
+        <f t="shared" si="10"/>
+        <v>46.73</v>
+      </c>
+      <c r="G124" s="68">
+        <f t="shared" si="11"/>
+        <v>5.673</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>114</v>
+      </c>
+      <c r="B125">
+        <v>95.72</v>
+      </c>
+      <c r="C125" s="78">
+        <v>40</v>
+      </c>
+      <c r="D125" s="79">
+        <v>10</v>
+      </c>
+      <c r="E125" s="66">
+        <f t="shared" si="9"/>
+        <v>47.86</v>
+      </c>
+      <c r="F125" s="80">
+        <f t="shared" si="10"/>
+        <v>37.86</v>
+      </c>
+      <c r="G125" s="68">
+        <f t="shared" si="11"/>
+        <v>4.7859999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>91</v>
+      </c>
+      <c r="B126">
+        <v>56.61</v>
+      </c>
+      <c r="C126" s="78">
+        <v>40</v>
+      </c>
+      <c r="D126" s="79">
+        <v>15</v>
+      </c>
+      <c r="E126" s="66">
+        <f t="shared" si="9"/>
+        <v>42.457499999999996</v>
+      </c>
+      <c r="F126" s="80">
+        <f t="shared" si="10"/>
+        <v>27.457499999999996</v>
+      </c>
+      <c r="G126" s="68">
+        <f t="shared" si="11"/>
+        <v>2.8304999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>88</v>
+      </c>
+      <c r="B127">
+        <v>47.23</v>
+      </c>
+      <c r="C127" s="78">
+        <v>40</v>
+      </c>
+      <c r="D127" s="79">
+        <v>20</v>
+      </c>
+      <c r="E127" s="66">
+        <f t="shared" si="9"/>
+        <v>47.23</v>
+      </c>
+      <c r="F127" s="80">
+        <f t="shared" si="10"/>
+        <v>27.229999999999997</v>
+      </c>
+      <c r="G127" s="68">
+        <f t="shared" si="11"/>
+        <v>2.3614999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>74</v>
+      </c>
+      <c r="B128">
+        <v>60.38</v>
+      </c>
+      <c r="C128" s="78">
+        <v>40</v>
+      </c>
+      <c r="D128" s="79">
+        <v>20</v>
+      </c>
+      <c r="E128" s="66">
+        <f t="shared" si="9"/>
+        <v>60.38000000000001</v>
+      </c>
+      <c r="F128" s="80">
+        <f t="shared" si="10"/>
+        <v>40.38000000000001</v>
+      </c>
+      <c r="G128" s="68">
+        <f t="shared" si="11"/>
+        <v>3.0190000000000006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>116</v>
+      </c>
+      <c r="B129">
+        <v>64.77</v>
+      </c>
+      <c r="C129" s="78">
+        <v>40</v>
+      </c>
+      <c r="D129" s="79">
+        <v>15</v>
+      </c>
+      <c r="E129" s="66">
+        <f t="shared" si="9"/>
+        <v>48.577500000000001</v>
+      </c>
+      <c r="F129" s="80">
+        <f t="shared" si="10"/>
+        <v>33.577500000000001</v>
+      </c>
+      <c r="G129" s="68">
+        <f t="shared" si="11"/>
+        <v>3.2385000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>111</v>
+      </c>
+      <c r="B130">
+        <v>41.76</v>
+      </c>
+      <c r="C130" s="78">
+        <v>40</v>
+      </c>
+      <c r="D130" s="79">
+        <v>20</v>
+      </c>
+      <c r="E130" s="66">
+        <f t="shared" si="9"/>
+        <v>41.76</v>
+      </c>
+      <c r="F130" s="80">
+        <f t="shared" si="10"/>
+        <v>21.759999999999998</v>
+      </c>
+      <c r="G130" s="68">
+        <f t="shared" si="11"/>
+        <v>2.0880000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>126.55</v>
+      </c>
+      <c r="C131" s="78">
+        <v>40</v>
+      </c>
+      <c r="D131" s="79">
+        <v>10</v>
+      </c>
+      <c r="E131" s="66">
+        <f t="shared" si="9"/>
+        <v>63.274999999999999</v>
+      </c>
+      <c r="F131" s="80">
+        <f t="shared" si="10"/>
+        <v>53.274999999999999</v>
+      </c>
+      <c r="G131" s="68">
+        <f t="shared" si="11"/>
+        <v>6.3274999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>69.05</v>
+      </c>
+      <c r="C132" s="78">
+        <v>40</v>
+      </c>
+      <c r="D132" s="79">
+        <v>15</v>
+      </c>
+      <c r="E132" s="66">
+        <f t="shared" si="9"/>
+        <v>51.787500000000001</v>
+      </c>
+      <c r="F132" s="80">
+        <f t="shared" si="10"/>
+        <v>36.787500000000001</v>
+      </c>
+      <c r="G132" s="68">
+        <f t="shared" si="11"/>
+        <v>3.4525000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>82</v>
+      </c>
+      <c r="B133">
+        <v>47.49</v>
+      </c>
+      <c r="C133" s="78">
+        <v>40</v>
+      </c>
+      <c r="D133" s="79">
+        <v>20</v>
+      </c>
+      <c r="E133" s="66">
+        <f t="shared" si="9"/>
+        <v>47.49</v>
+      </c>
+      <c r="F133" s="80">
+        <f t="shared" si="10"/>
+        <v>27.490000000000002</v>
+      </c>
+      <c r="G133" s="68">
+        <f t="shared" si="11"/>
+        <v>2.3745000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>94.21</v>
+      </c>
+      <c r="C134" s="78">
+        <v>40</v>
+      </c>
+      <c r="D134" s="79">
+        <v>10</v>
+      </c>
+      <c r="E134" s="66">
+        <f t="shared" si="9"/>
+        <v>47.104999999999997</v>
+      </c>
+      <c r="F134" s="80">
+        <f t="shared" si="10"/>
+        <v>37.104999999999997</v>
+      </c>
+      <c r="G134" s="68">
+        <f t="shared" si="11"/>
+        <v>4.7104999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135">
+        <v>49.53</v>
+      </c>
+      <c r="C135" s="78">
+        <v>40</v>
+      </c>
+      <c r="D135" s="79">
+        <v>20</v>
+      </c>
+      <c r="E135" s="66">
+        <f t="shared" si="9"/>
+        <v>49.53</v>
+      </c>
+      <c r="F135" s="80">
+        <f t="shared" si="10"/>
+        <v>29.53</v>
+      </c>
+      <c r="G135" s="68">
+        <f t="shared" si="11"/>
+        <v>2.4765000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>83</v>
+      </c>
+      <c r="B136">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="C136" s="78">
+        <v>40</v>
+      </c>
+      <c r="D136" s="79">
+        <v>15</v>
+      </c>
+      <c r="E136" s="66">
+        <f t="shared" si="9"/>
+        <v>54.487499999999997</v>
+      </c>
+      <c r="F136" s="80">
+        <f t="shared" si="10"/>
+        <v>39.487499999999997</v>
+      </c>
+      <c r="G136" s="68">
+        <f t="shared" si="11"/>
+        <v>3.6324999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>67.23</v>
+      </c>
+      <c r="C137" s="78">
+        <v>40</v>
+      </c>
+      <c r="D137" s="79">
+        <v>15</v>
+      </c>
+      <c r="E137" s="66">
+        <f t="shared" si="9"/>
+        <v>50.422499999999999</v>
+      </c>
+      <c r="F137" s="80">
+        <f t="shared" si="10"/>
+        <v>35.422499999999999</v>
+      </c>
+      <c r="G137" s="68">
+        <f t="shared" si="11"/>
+        <v>3.3614999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>87.64</v>
+      </c>
+      <c r="C138" s="78">
+        <v>40</v>
+      </c>
+      <c r="D138" s="79">
+        <v>10</v>
+      </c>
+      <c r="E138" s="66">
+        <f t="shared" si="9"/>
+        <v>43.82</v>
+      </c>
+      <c r="F138" s="80">
+        <f t="shared" si="10"/>
+        <v>33.82</v>
+      </c>
+      <c r="G138" s="68">
+        <f t="shared" si="11"/>
+        <v>4.3819999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>42</v>
+      </c>
+      <c r="B139">
+        <v>28.22</v>
+      </c>
+      <c r="C139" s="78">
+        <v>40</v>
+      </c>
+      <c r="D139" s="79">
+        <v>30</v>
+      </c>
+      <c r="E139" s="66">
+        <f t="shared" si="9"/>
+        <v>42.33</v>
+      </c>
+      <c r="F139" s="80">
+        <f t="shared" si="10"/>
+        <v>12.329999999999998</v>
+      </c>
+      <c r="G139" s="68">
+        <f t="shared" si="11"/>
+        <v>1.411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>55</v>
+      </c>
+      <c r="B140">
+        <v>21.81</v>
+      </c>
+      <c r="C140" s="78">
+        <v>40</v>
+      </c>
+      <c r="D140" s="79">
+        <v>35</v>
+      </c>
+      <c r="E140" s="66">
+        <f t="shared" si="9"/>
+        <v>38.167499999999997</v>
+      </c>
+      <c r="F140" s="80">
+        <f t="shared" si="10"/>
+        <v>3.1674999999999969</v>
+      </c>
+      <c r="G140" s="68">
+        <f t="shared" si="11"/>
+        <v>1.0904999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>64</v>
+      </c>
+      <c r="B141">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="C141" s="78">
+        <v>40</v>
+      </c>
+      <c r="D141" s="79">
+        <v>10</v>
+      </c>
+      <c r="E141" s="66">
+        <f t="shared" si="9"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F141" s="80">
+        <f t="shared" si="10"/>
+        <v>-1.2899999999999991</v>
+      </c>
+      <c r="G141" s="68">
+        <f t="shared" si="11"/>
+        <v>0.87100000000000011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>33</v>
+      </c>
+      <c r="B142">
+        <v>88.63</v>
+      </c>
+      <c r="C142" s="78">
+        <v>40</v>
+      </c>
+      <c r="D142" s="79">
+        <v>10</v>
+      </c>
+      <c r="E142" s="66">
+        <f t="shared" si="9"/>
+        <v>44.314999999999998</v>
+      </c>
+      <c r="F142" s="80">
+        <f t="shared" si="10"/>
+        <v>34.314999999999998</v>
+      </c>
+      <c r="G142" s="68">
+        <f t="shared" si="11"/>
+        <v>4.4314999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>19</v>
+      </c>
+      <c r="B143">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="C143" s="78">
+        <v>40</v>
+      </c>
+      <c r="D143" s="79">
+        <v>10</v>
+      </c>
+      <c r="E143" s="66">
+        <f t="shared" si="9"/>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F143" s="80">
+        <f t="shared" si="10"/>
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="G143" s="68">
+        <f t="shared" si="11"/>
+        <v>0.49400000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>58</v>
+      </c>
+      <c r="B144">
+        <v>70.42</v>
+      </c>
+      <c r="C144" s="78">
+        <v>40</v>
+      </c>
+      <c r="D144" s="79">
+        <v>15</v>
+      </c>
+      <c r="E144" s="66">
+        <f t="shared" si="9"/>
+        <v>52.814999999999998</v>
+      </c>
+      <c r="F144" s="80">
+        <f t="shared" si="10"/>
+        <v>37.814999999999998</v>
+      </c>
+      <c r="G144" s="68">
+        <f t="shared" si="11"/>
+        <v>3.5209999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>37</v>
+      </c>
+      <c r="B145">
+        <v>26.78</v>
+      </c>
+      <c r="C145" s="78">
+        <v>40</v>
+      </c>
+      <c r="D145" s="79">
+        <v>30</v>
+      </c>
+      <c r="E145" s="66">
+        <f t="shared" si="9"/>
+        <v>40.17</v>
+      </c>
+      <c r="F145" s="80">
+        <f t="shared" si="10"/>
+        <v>10.170000000000002</v>
+      </c>
+      <c r="G145" s="68">
+        <f t="shared" si="11"/>
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>49</v>
+      </c>
+      <c r="B146">
+        <v>11.41</v>
+      </c>
+      <c r="C146" s="78">
+        <v>40</v>
+      </c>
+      <c r="D146" s="79">
+        <v>10</v>
+      </c>
+      <c r="E146" s="66">
+        <f t="shared" si="9"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="F146" s="80">
+        <f t="shared" si="10"/>
+        <v>-4.2949999999999999</v>
+      </c>
+      <c r="G146" s="68">
+        <f t="shared" si="11"/>
+        <v>0.57050000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>52</v>
+      </c>
+      <c r="B147">
+        <v>24.12</v>
+      </c>
+      <c r="C147" s="78">
+        <v>40</v>
+      </c>
+      <c r="D147" s="79">
+        <v>35</v>
+      </c>
+      <c r="E147" s="66">
+        <f t="shared" si="9"/>
+        <v>42.21</v>
+      </c>
+      <c r="F147" s="80">
+        <f t="shared" si="10"/>
+        <v>7.2100000000000009</v>
+      </c>
+      <c r="G147" s="68">
+        <f t="shared" si="11"/>
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>39</v>
+      </c>
+      <c r="B148">
+        <v>21</v>
+      </c>
+      <c r="C148" s="78">
+        <v>40</v>
+      </c>
+      <c r="D148" s="79">
+        <v>40</v>
+      </c>
+      <c r="E148" s="66">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="F148" s="80">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G148" s="68">
+        <f t="shared" si="11"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>45</v>
+      </c>
+      <c r="B149">
+        <v>3.82</v>
+      </c>
+      <c r="C149" s="78">
+        <v>40</v>
+      </c>
+      <c r="D149" s="79">
+        <v>10</v>
+      </c>
+      <c r="E149" s="66">
+        <f t="shared" si="9"/>
+        <v>1.9099999999999997</v>
+      </c>
+      <c r="F149" s="80">
+        <f t="shared" si="10"/>
+        <v>-8.09</v>
+      </c>
+      <c r="G149" s="68">
+        <f t="shared" si="11"/>
+        <v>0.19099999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="C150" s="78">
+        <v>40</v>
+      </c>
+      <c r="D150" s="79">
+        <v>25</v>
+      </c>
+      <c r="E150" s="66">
+        <f t="shared" si="9"/>
+        <v>43.912500000000009</v>
+      </c>
+      <c r="F150" s="80">
+        <f t="shared" si="10"/>
+        <v>18.912500000000009</v>
+      </c>
+      <c r="G150" s="68">
+        <f t="shared" si="11"/>
+        <v>1.7565000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>28</v>
+      </c>
+      <c r="B151">
+        <v>21.12</v>
+      </c>
+      <c r="C151" s="78">
+        <v>40</v>
+      </c>
+      <c r="D151" s="79">
+        <v>40</v>
+      </c>
+      <c r="E151" s="66">
+        <f t="shared" si="9"/>
+        <v>42.24</v>
+      </c>
+      <c r="F151" s="80">
+        <f t="shared" si="10"/>
+        <v>2.240000000000002</v>
+      </c>
+      <c r="G151" s="68">
+        <f t="shared" si="11"/>
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>54</v>
+      </c>
+      <c r="C152" s="78">
+        <v>40</v>
+      </c>
+      <c r="D152" s="79">
+        <v>15</v>
+      </c>
+      <c r="E152" s="66">
+        <f t="shared" si="9"/>
+        <v>40.5</v>
+      </c>
+      <c r="F152" s="80">
+        <f t="shared" si="10"/>
+        <v>25.5</v>
+      </c>
+      <c r="G152" s="68">
+        <f t="shared" si="11"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>23</v>
+      </c>
+      <c r="B153">
+        <v>20.86</v>
+      </c>
+      <c r="C153" s="78">
+        <v>40</v>
+      </c>
+      <c r="D153" s="79">
+        <v>40</v>
+      </c>
+      <c r="E153" s="66">
+        <f t="shared" si="9"/>
+        <v>41.72</v>
+      </c>
+      <c r="F153" s="80">
+        <f t="shared" si="10"/>
+        <v>1.7199999999999989</v>
+      </c>
+      <c r="G153" s="68">
+        <f t="shared" si="11"/>
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>27</v>
+      </c>
+      <c r="B154">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="C154" s="78">
+        <v>40</v>
+      </c>
+      <c r="D154" s="79">
+        <v>20</v>
+      </c>
+      <c r="E154" s="66">
+        <f t="shared" si="9"/>
+        <v>37.909999999999997</v>
+      </c>
+      <c r="F154" s="80">
+        <f t="shared" si="10"/>
+        <v>17.909999999999997</v>
+      </c>
+      <c r="G154" s="68">
+        <f t="shared" si="11"/>
+        <v>1.8954999999999997</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="64"/>
@@ -32521,46 +33344,28 @@
       <c r="G362" s="64"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A363" s="64"/>
-      <c r="B363" s="64"/>
-      <c r="C363" s="64"/>
-      <c r="D363" s="65"/>
-      <c r="E363" s="66"/>
-      <c r="F363" s="67"/>
-      <c r="G363" s="64"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A364" s="64"/>
-      <c r="B364" s="64"/>
-      <c r="C364" s="64"/>
-      <c r="D364" s="65"/>
-      <c r="E364" s="66"/>
-      <c r="F364" s="67"/>
-      <c r="G364" s="64"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A365" s="64">
+      <c r="A363" s="64">
         <v>396</v>
       </c>
-      <c r="B365" s="64">
+      <c r="B363" s="64">
         <v>341.18</v>
       </c>
-      <c r="C365" s="64">
-        <v>40</v>
-      </c>
-      <c r="D365" s="65">
-        <v>5</v>
-      </c>
-      <c r="E365" s="66">
-        <f>((B365*D365)/20)</f>
+      <c r="C363" s="64">
+        <v>40</v>
+      </c>
+      <c r="D363" s="65">
+        <v>5</v>
+      </c>
+      <c r="E363" s="66">
+        <f>((B363*D363)/20)</f>
         <v>85.295000000000002</v>
       </c>
-      <c r="F365" s="67">
-        <f t="shared" ref="F365" si="4">(E365-D365)</f>
+      <c r="F363" s="67">
+        <f t="shared" ref="F363" si="12">(E363-D363)</f>
         <v>80.295000000000002</v>
       </c>
-      <c r="G365" s="68">
-        <f t="shared" ref="G365" si="5">(E365/D365)</f>
+      <c r="G363" s="68">
+        <f t="shared" ref="G363" si="13">(E363/D363)</f>
         <v>17.059000000000001</v>
       </c>
     </row>
